--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_18_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_18_.xlsx
@@ -1581,8 +1581,8 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="37.189887640449435"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="26.6561797752809"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="27.28988764044944"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="43.789887640449436"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="43.789887640449436"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="34.98988764044944"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1900,10 +1900,10 @@
           <t>2014-3581</t>
         </is>
       </c>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2014-04-10T00:00:00</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2014-04-12T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
@@ -1938,286 +1938,84 @@
       <c r="AG6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>8797</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>PCIU2129609</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>RISSEN</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>2014/735</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>SHISHIR KNITTING &amp; DYEING LIMITED</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="N7" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL DIRTY</t>
         </is>
       </c>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
-      <c r="T7" s="0" t="inlineStr">
-        <is>
-          <t>SODIUM SULPHATE</t>
-        </is>
-      </c>
-      <c r="U7" s="0" t="inlineStr">
-        <is>
-          <t>W020120</t>
-        </is>
-      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
       <c r="V7" s="0"/>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>2014-3581</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="d">
-        <v>2014-04-10T00:00:00</v>
-      </c>
-      <c r="Y7" s="4" t="d">
-        <v>2014-04-12T00:00:00</v>
-      </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="0" t="inlineStr">
-        <is>
-          <t>UQDCGPS1402415</t>
-        </is>
-      </c>
-      <c r="AD7" s="0" t="inlineStr">
-        <is>
-          <t>PIL-478</t>
-        </is>
-      </c>
+      <c r="W7" s="0"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
       <c r="AE7" s="0"/>
-      <c r="AF7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG7" s="0"/>
+      <c r="AF7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>8797</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>PCIU2129609</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>RISSEN</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>2014/735</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>SHISHIR KNITTING &amp; DYEING LIMITED</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST </t>
         </is>
       </c>
-      <c r="P8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
-      <c r="T8" s="0" t="inlineStr">
-        <is>
-          <t>SODIUM SULPHATE</t>
-        </is>
-      </c>
-      <c r="U8" s="0" t="inlineStr">
-        <is>
-          <t>W020120</t>
-        </is>
-      </c>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
       <c r="V8" s="0"/>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>2014-3581</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="d">
-        <v>2014-04-10T00:00:00</v>
-      </c>
-      <c r="Y8" s="4" t="d">
-        <v>2014-04-12T00:00:00</v>
-      </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="0" t="inlineStr">
-        <is>
-          <t>UQDCGPS1402415</t>
-        </is>
-      </c>
-      <c r="AD8" s="0" t="inlineStr">
-        <is>
-          <t>PIL-478</t>
-        </is>
-      </c>
+      <c r="W8" s="0"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
       <c r="AE8" s="0"/>
-      <c r="AF8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG8" s="0"/>
+      <c r="AF8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>8798</v>
@@ -2332,7 +2130,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8799</v>
@@ -2447,7 +2245,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8800</v>
@@ -2562,7 +2360,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>9746</v>
@@ -2679,7 +2477,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8841</v>
@@ -2792,7 +2590,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>8842</v>
@@ -2905,7 +2703,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>8843</v>
@@ -3018,7 +2816,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>8844</v>
@@ -3131,7 +2929,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9014</v>
@@ -3244,7 +3042,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9015</v>
@@ -3357,7 +3155,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>9016</v>
@@ -3470,7 +3268,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>9017</v>
@@ -3583,7 +3381,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>9018</v>
@@ -3696,7 +3494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9019</v>
@@ -3809,7 +3607,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>9020</v>
@@ -3922,7 +3720,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>9021</v>
@@ -4035,7 +3833,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>9022</v>
@@ -4148,7 +3946,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>9023</v>
@@ -4261,7 +4059,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>9024</v>
@@ -4374,7 +4172,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>9025</v>
@@ -4487,7 +4285,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>9026</v>
@@ -4600,7 +4398,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9027</v>
@@ -4713,7 +4511,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>9028</v>
@@ -4826,7 +4624,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>9029</v>
@@ -4939,7 +4737,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>9030</v>
@@ -5052,7 +4850,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9031</v>
@@ -5165,7 +4963,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>9032</v>
@@ -5278,7 +5076,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>9033</v>
@@ -5391,7 +5189,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>9160</v>
@@ -5504,7 +5302,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>9299</v>
@@ -5617,7 +5415,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>9300</v>
@@ -5730,7 +5528,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>9301</v>
@@ -5843,7 +5641,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>9747</v>
@@ -5956,7 +5754,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>9304</v>
@@ -6069,7 +5867,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>9305</v>
@@ -6182,7 +5980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>9306</v>
@@ -6295,7 +6093,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>9307</v>
@@ -6408,7 +6206,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>9308</v>
@@ -6521,7 +6319,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>9309</v>
@@ -6634,7 +6432,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>9310</v>
@@ -6747,7 +6545,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>9311</v>
@@ -6860,7 +6658,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>9606</v>
@@ -6973,7 +6771,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>9607</v>
@@ -7086,7 +6884,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>9608</v>
@@ -7199,7 +6997,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>9609</v>
@@ -7312,7 +7110,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>9610</v>
@@ -7425,7 +7223,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>9611</v>
@@ -7538,7 +7336,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>9612</v>
@@ -7651,7 +7449,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>9613</v>
@@ -7764,7 +7562,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>9614</v>
@@ -7877,7 +7675,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>9615</v>
@@ -7990,7 +7788,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>9616</v>
@@ -8103,7 +7901,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>9617</v>
@@ -8216,7 +8014,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>9618</v>
@@ -8329,7 +8127,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>9619</v>
@@ -8442,7 +8240,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>9620</v>
@@ -8555,7 +8353,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>9621</v>
@@ -8668,7 +8466,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>9622</v>
@@ -8781,7 +8579,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>9623</v>
@@ -8894,7 +8692,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>9624</v>
@@ -9007,7 +8805,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>9625</v>

--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_18_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_18_.xlsx
@@ -1569,7 +1569,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.489887640449439" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="232.98988764044944" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.656179775280899"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.2561797752809"/>
@@ -1581,7 +1581,7 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="37.189887640449435"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="26.6561797752809"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="43.789887640449436"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.0561797752809"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="34.98988764044944"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1938,80 +1938,28 @@
       <c r="AG6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY", "", "", "", nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST </t>
-        </is>
-      </c>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST ", "", "", "", nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">

--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_18_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_18_.xlsx
@@ -1569,7 +1569,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="232.98988764044944" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.489887640449439" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.656179775280899"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.2561797752809"/>
@@ -1581,8 +1581,8 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="37.189887640449435"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="26.6561797752809"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="34.98988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="27.28988764044944"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="43.789887640449436"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1943,11 +1943,62 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY", "", "", "", nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil]</t>
-        </is>
-      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -1955,11 +2006,62 @@
           <t> </t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST ", "", "", "", nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil]</t>
-        </is>
-      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST </t>
+        </is>
+      </c>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">

--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_18_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_18_.xlsx
@@ -1627,7 +1627,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:62</t>
+          <t>Total number of containers:62</t>
         </is>
       </c>
     </row>
